--- a/nodes_source_analyses/energy/energy_flexibility_hv_opac_electricity.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_flexibility_hv_opac_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E40A6F-4A5D-0C46-9CEF-DFB48654B047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6D4BF8-8330-C244-B831-F2511D222247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="102">
   <si>
     <t>Source</t>
   </si>
@@ -282,9 +282,6 @@
   </si>
   <si>
     <t>ETM Library URL</t>
-  </si>
-  <si>
-    <t>Joris Berkhout</t>
   </si>
   <si>
     <t>storage.volume</t>
@@ -374,6 +371,12 @@
   <si>
     <t>energy_flexibility_hv_opac_electricity.converter.ad</t>
   </si>
+  <si>
+    <t>Marlieke Verweij</t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
@@ -384,12 +387,19 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -576,7 +586,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,6 +651,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -878,581 +894,582 @@
   </borders>
   <cellStyleXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="274">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2181,8 +2198,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -2217,7 +2234,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="140" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2226,7 +2243,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2385,8 +2402,8 @@
   </sheetPr>
   <dimension ref="B1:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" customHeight="1"/>
@@ -2411,28 +2428,28 @@
       <c r="G1" s="79"/>
     </row>
     <row r="2" spans="2:11" ht="16" customHeight="1">
-      <c r="B2" s="141" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="143"/>
+      <c r="B2" s="151" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="153"/>
       <c r="F2" s="79"/>
       <c r="G2" s="79"/>
     </row>
     <row r="3" spans="2:11" ht="16" customHeight="1">
-      <c r="B3" s="144"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="146"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="156"/>
       <c r="F3" s="79"/>
       <c r="G3" s="79"/>
     </row>
     <row r="4" spans="2:11" ht="32" customHeight="1">
-      <c r="B4" s="147"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="149"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="159"/>
       <c r="F4" s="79"/>
       <c r="G4" s="79"/>
     </row>
@@ -2498,10 +2515,10 @@
     <row r="10" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B10" s="88"/>
       <c r="C10" s="101" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="105" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="131">
         <f>'Research data'!G6</f>
@@ -2510,14 +2527,14 @@
       <c r="F10" s="103"/>
       <c r="G10" s="104"/>
       <c r="I10" s="138" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J10" s="91"/>
     </row>
     <row r="11" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B11" s="88"/>
       <c r="C11" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="105" t="s">
         <v>44</v>
@@ -2529,14 +2546,14 @@
       <c r="F11" s="103"/>
       <c r="G11" s="104"/>
       <c r="I11" s="138" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J11" s="91"/>
     </row>
     <row r="12" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B12" s="88"/>
       <c r="C12" s="134" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="105" t="s">
         <v>4</v>
@@ -2548,7 +2565,7 @@
       <c r="F12" s="103"/>
       <c r="G12" s="104"/>
       <c r="I12" s="138" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J12" s="91"/>
     </row>
@@ -2567,7 +2584,7 @@
       <c r="F13" s="103"/>
       <c r="G13" s="104"/>
       <c r="I13" s="138" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J13" s="91"/>
     </row>
@@ -2586,7 +2603,7 @@
       <c r="F14" s="103"/>
       <c r="G14" s="103"/>
       <c r="I14" s="138" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J14" s="93"/>
       <c r="K14" s="79"/>
@@ -2605,7 +2622,7 @@
       <c r="F15" s="103"/>
       <c r="G15" s="103"/>
       <c r="I15" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J15" s="93"/>
       <c r="K15" s="79"/>
@@ -2624,7 +2641,7 @@
       <c r="F16" s="103"/>
       <c r="G16" s="103"/>
       <c r="I16" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J16" s="93"/>
       <c r="K16" s="79"/>
@@ -2643,7 +2660,7 @@
       <c r="F17" s="103"/>
       <c r="G17" s="103"/>
       <c r="I17" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17" s="93"/>
       <c r="K17" s="79"/>
@@ -2662,7 +2679,7 @@
       <c r="F18" s="103"/>
       <c r="G18" s="103"/>
       <c r="I18" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J18" s="93"/>
       <c r="K18" s="79"/>
@@ -2681,7 +2698,7 @@
       <c r="F19" s="103"/>
       <c r="G19" s="103"/>
       <c r="I19" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J19" s="93"/>
       <c r="K19" s="79"/>
@@ -2700,7 +2717,7 @@
       <c r="F20" s="103"/>
       <c r="G20" s="103"/>
       <c r="I20" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J20" s="93"/>
     </row>
@@ -2741,7 +2758,7 @@
       <c r="F23" s="103"/>
       <c r="G23" s="103"/>
       <c r="I23" s="138" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J23" s="93"/>
     </row>
@@ -2759,7 +2776,7 @@
       <c r="F24" s="103"/>
       <c r="G24" s="103"/>
       <c r="I24" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J24" s="93"/>
     </row>
@@ -2777,7 +2794,7 @@
       <c r="F25" s="103"/>
       <c r="G25" s="103"/>
       <c r="I25" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J25" s="93"/>
     </row>
@@ -2795,7 +2812,7 @@
       <c r="F26" s="103"/>
       <c r="G26" s="103"/>
       <c r="I26" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J26" s="93"/>
     </row>
@@ -2814,7 +2831,7 @@
       <c r="F27" s="103"/>
       <c r="G27" s="103"/>
       <c r="I27" s="138" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J27" s="93"/>
     </row>
@@ -2832,7 +2849,7 @@
       <c r="F28" s="103"/>
       <c r="G28" s="103"/>
       <c r="I28" s="138" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J28" s="93"/>
     </row>
@@ -2850,7 +2867,7 @@
       <c r="F29" s="103"/>
       <c r="G29" s="103"/>
       <c r="I29" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J29" s="93"/>
     </row>
@@ -2863,12 +2880,12 @@
         <v>2</v>
       </c>
       <c r="E30" s="102">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F30" s="103"/>
       <c r="G30" s="103"/>
-      <c r="I30" s="138" t="s">
-        <v>87</v>
+      <c r="I30" s="160" t="s">
+        <v>101</v>
       </c>
       <c r="J30" s="93"/>
     </row>
@@ -2886,7 +2903,7 @@
       <c r="F31" s="103"/>
       <c r="G31" s="103"/>
       <c r="I31" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J31" s="93"/>
     </row>
@@ -2926,7 +2943,7 @@
       <c r="F34" s="103"/>
       <c r="G34" s="103"/>
       <c r="I34" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J34" s="93"/>
     </row>
@@ -2945,7 +2962,7 @@
       <c r="F35" s="103"/>
       <c r="G35" s="103"/>
       <c r="I35" s="138" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J35" s="93"/>
     </row>
@@ -2964,7 +2981,7 @@
       <c r="F36" s="103"/>
       <c r="G36" s="103"/>
       <c r="I36" s="138" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J36" s="93"/>
     </row>
@@ -2982,7 +2999,7 @@
       <c r="F37" s="103"/>
       <c r="G37" s="103"/>
       <c r="I37" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J37" s="93"/>
     </row>
@@ -2998,7 +3015,7 @@
       <c r="F38" s="103"/>
       <c r="G38" s="103"/>
       <c r="I38" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J38" s="93"/>
     </row>
@@ -3014,7 +3031,7 @@
       <c r="F39" s="103"/>
       <c r="G39" s="103"/>
       <c r="I39" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J39" s="93"/>
     </row>
@@ -3030,7 +3047,7 @@
       <c r="F40" s="103"/>
       <c r="G40" s="103"/>
       <c r="I40" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J40" s="93"/>
     </row>
@@ -3046,7 +3063,7 @@
       <c r="F41" s="103"/>
       <c r="G41" s="103"/>
       <c r="I41" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J41" s="93"/>
     </row>
@@ -3062,7 +3079,7 @@
       <c r="F42" s="103"/>
       <c r="G42" s="103"/>
       <c r="I42" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J42" s="93"/>
     </row>
@@ -3173,131 +3190,131 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="151"/>
+      <c r="K5" s="142"/>
       <c r="L5" s="73"/>
     </row>
     <row r="6" spans="2:12" ht="17" thickBot="1">
       <c r="B6" s="41"/>
       <c r="C6" s="129" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
       <c r="F6" s="130" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="156">
+        <v>82</v>
+      </c>
+      <c r="G6" s="147">
         <v>8400</v>
       </c>
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
       <c r="J6" s="43"/>
-      <c r="K6" s="151" t="s">
-        <v>95</v>
+      <c r="K6" s="142" t="s">
+        <v>94</v>
       </c>
       <c r="L6" s="73"/>
     </row>
     <row r="7" spans="2:12" ht="17" thickBot="1">
       <c r="B7" s="41"/>
       <c r="C7" s="129" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
       <c r="F7" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="156">
+      <c r="G7" s="147">
         <v>0</v>
       </c>
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
       <c r="J7" s="43"/>
-      <c r="K7" s="151" t="s">
-        <v>95</v>
+      <c r="K7" s="142" t="s">
+        <v>94</v>
       </c>
       <c r="L7" s="73"/>
     </row>
     <row r="8" spans="2:12" ht="17" thickBot="1">
       <c r="B8" s="41"/>
-      <c r="C8" s="152" t="s">
-        <v>99</v>
+      <c r="C8" s="143" t="s">
+        <v>98</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
       <c r="F8" s="130"/>
-      <c r="G8" s="156">
+      <c r="G8" s="147">
         <v>1</v>
       </c>
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
       <c r="J8" s="43"/>
-      <c r="K8" s="151" t="s">
-        <v>95</v>
+      <c r="K8" s="142" t="s">
+        <v>94</v>
       </c>
       <c r="L8" s="73"/>
     </row>
     <row r="9" spans="2:12" ht="17" thickBot="1">
       <c r="B9" s="41"/>
       <c r="C9" s="129" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="44"/>
       <c r="F9" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="157">
+      <c r="G9" s="148">
         <f>G10/G11</f>
         <v>1750</v>
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
       <c r="J9" s="43"/>
-      <c r="K9" s="151" t="s">
-        <v>95</v>
+      <c r="K9" s="142" t="s">
+        <v>94</v>
       </c>
       <c r="L9" s="73"/>
     </row>
     <row r="10" spans="2:12" ht="17" thickBot="1">
       <c r="B10" s="41"/>
       <c r="C10" s="129" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="44"/>
       <c r="F10" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="156">
+      <c r="G10" s="147">
         <v>1400</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
       <c r="J10" s="43"/>
-      <c r="K10" s="151" t="s">
-        <v>95</v>
+      <c r="K10" s="142" t="s">
+        <v>94</v>
       </c>
       <c r="L10" s="73"/>
     </row>
     <row r="11" spans="2:12" ht="17" thickBot="1">
       <c r="B11" s="41"/>
       <c r="C11" s="129" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="155">
+      <c r="G11" s="146">
         <v>0.8</v>
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
       <c r="J11" s="43"/>
-      <c r="K11" s="151" t="s">
-        <v>95</v>
+      <c r="K11" s="142" t="s">
+        <v>94</v>
       </c>
       <c r="L11" s="73"/>
     </row>
@@ -3307,11 +3324,11 @@
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
       <c r="F12" s="48"/>
-      <c r="G12" s="158"/>
+      <c r="G12" s="149"/>
       <c r="H12" s="46"/>
       <c r="I12" s="46"/>
       <c r="J12" s="46"/>
-      <c r="K12" s="151"/>
+      <c r="K12" s="142"/>
       <c r="L12" s="73"/>
     </row>
     <row r="13" spans="2:12" ht="17" thickBot="1">
@@ -3322,52 +3339,52 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="159"/>
+      <c r="G13" s="150"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="151"/>
+      <c r="K13" s="142"/>
       <c r="L13" s="73"/>
     </row>
     <row r="14" spans="2:12" ht="17" thickBot="1">
       <c r="B14" s="41"/>
       <c r="C14" s="129" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
       <c r="F14" s="130" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="156">
+        <v>78</v>
+      </c>
+      <c r="G14" s="147">
         <v>1785000000</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
       <c r="J14" s="43"/>
-      <c r="K14" s="151" t="s">
-        <v>95</v>
+      <c r="K14" s="142" t="s">
+        <v>94</v>
       </c>
       <c r="L14" s="73"/>
     </row>
     <row r="15" spans="2:12" ht="17" thickBot="1">
       <c r="B15" s="41"/>
-      <c r="C15" s="152" t="s">
-        <v>96</v>
+      <c r="C15" s="143" t="s">
+        <v>95</v>
       </c>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
-      <c r="F15" s="153" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="156">
+      <c r="F15" s="144" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="147">
         <v>19800000</v>
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
       <c r="J15" s="43"/>
-      <c r="K15" s="151" t="s">
-        <v>95</v>
+      <c r="K15" s="142" t="s">
+        <v>94</v>
       </c>
       <c r="L15" s="73"/>
     </row>
@@ -3377,11 +3394,11 @@
       <c r="D16" s="47"/>
       <c r="E16" s="47"/>
       <c r="F16" s="48"/>
-      <c r="G16" s="158"/>
+      <c r="G16" s="149"/>
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
       <c r="J16" s="43"/>
-      <c r="K16" s="154"/>
+      <c r="K16" s="145"/>
       <c r="L16" s="73"/>
     </row>
     <row r="17" spans="2:12" ht="17" thickBot="1">
@@ -3392,11 +3409,11 @@
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="159"/>
+      <c r="G17" s="150"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="151"/>
+      <c r="K17" s="142"/>
       <c r="L17" s="73"/>
     </row>
     <row r="18" spans="2:12" ht="17" thickBot="1">
@@ -3410,23 +3427,23 @@
       <c r="E18" s="44">
         <v>0</v>
       </c>
-      <c r="F18" s="153" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="156">
+      <c r="F18" s="144" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="147">
         <v>5</v>
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
       <c r="J18" s="43"/>
-      <c r="K18" s="151" t="s">
-        <v>95</v>
+      <c r="K18" s="142" t="s">
+        <v>94</v>
       </c>
       <c r="L18" s="73"/>
     </row>
     <row r="19" spans="2:12" ht="17" thickBot="1">
       <c r="B19" s="41"/>
-      <c r="C19" s="152" t="s">
+      <c r="C19" s="143" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="44" t="s">
@@ -3435,17 +3452,17 @@
       <c r="E19" s="44">
         <v>5</v>
       </c>
-      <c r="F19" s="153" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="156">
+      <c r="F19" s="144" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="147">
         <v>50</v>
       </c>
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
       <c r="J19" s="43"/>
-      <c r="K19" s="151" t="s">
-        <v>94</v>
+      <c r="K19" s="142" t="s">
+        <v>93</v>
       </c>
       <c r="L19" s="73"/>
     </row>
@@ -3568,15 +3585,15 @@
     </row>
     <row r="8" spans="2:11">
       <c r="C8" s="139" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="150">
+      <c r="G8" s="141">
         <v>43344</v>
       </c>
       <c r="H8" s="22">
@@ -3586,12 +3603,12 @@
         <v>43709</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="C9" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3658,7 +3675,7 @@
       <c r="I4" s="118"/>
       <c r="J4" s="118"/>
       <c r="K4" s="120" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:11">
